--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105004.5134175178</v>
+        <v>-107706.1613200524</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>173.9484321805918</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>145.1986582043253</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>130.4949840230014</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>38.71987512790883</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.10659845039948</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.87073484362677</v>
@@ -944,25 +944,25 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.0390698703443</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>133.6926787005296</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.6238489443946</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.013305673653</v>
       </c>
       <c r="X7" t="n">
-        <v>77.84303991612562</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.81471030931154</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>225.6012771342554</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>411.830884450382</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151397</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.8978127731749</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>79.10474321197398</v>
       </c>
       <c r="D9" t="n">
-        <v>18.23297885181763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436608</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282963</v>
+        <v>30.34503645282967</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25.83978495499256</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.96675359302732</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332426</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099045</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>35.16722044262401</v>
+        <v>240.1044458298912</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184575</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615222</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530798</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>105.508928064093</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905248</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.1130906722079</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187895</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699873</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922594</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>41.02686156551265</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890316</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576188</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833828</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>213.6608990998131</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>148.2735510725133</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.56474874233525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936204</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141544</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.07916359105508</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3341376326238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428142</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>26.27614159852288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.8899482514164</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>73.78331078915264</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>81.11398998229735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>114.8498234654387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833801</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>179.6926686226137</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148103</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148103</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832529</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>603.4370373477802</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477802</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477802</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312953</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312953</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312953</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148103</v>
+        <v>400.3029543659128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9364566345569</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>710.9913636875948</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>710.9913636875948</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>521.5715786711098</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>521.5715786711098</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>521.5715786711098</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="X3" t="n">
-        <v>332.1517936546249</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.1517936546249</v>
+        <v>146.8151621480545</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>773.7465554689227</v>
+        <v>422.3390791561948</v>
       </c>
       <c r="C5" t="n">
-        <v>773.7465554689227</v>
+        <v>422.3390791561948</v>
       </c>
       <c r="D5" t="n">
-        <v>773.7465554689227</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E5" t="n">
-        <v>773.7465554689227</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
         <v>362.7606506793151</v>
@@ -4571,13 +4571,13 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V5" t="n">
-        <v>1837.396939561082</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="W5" t="n">
-        <v>1484.628284290968</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="X5" t="n">
-        <v>1484.628284290968</v>
+        <v>1199.078251196128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1160.346395533044</v>
+        <v>808.9389192203166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809.4046422439259</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="C6" t="n">
-        <v>634.9516129627989</v>
+        <v>327.3467159978591</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>178.4123063366078</v>
       </c>
       <c r="G6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1311.426387579904</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="V6" t="n">
-        <v>1271.402297737081</v>
+        <v>1165.411208716615</v>
       </c>
       <c r="W6" t="n">
-        <v>1017.16494100888</v>
+        <v>911.1738519884138</v>
       </c>
       <c r="X6" t="n">
-        <v>1017.16494100888</v>
+        <v>703.322351782881</v>
       </c>
       <c r="Y6" t="n">
-        <v>809.4046422439259</v>
+        <v>495.5620530179271</v>
       </c>
     </row>
     <row r="7">
@@ -4747,22 +4747,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>121.9985297867048</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>121.9985297867048</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W7" t="n">
-        <v>121.9985297867048</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
         <v>43.36919653809306</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.7944535451873</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6381805054786</v>
+        <v>1053.423073902877</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6381805054786</v>
+        <v>695.1573752961267</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6381805054786</v>
+        <v>467.2772973827373</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>460.3317966335339</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941056</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420294</v>
+        <v>156.8280559420296</v>
       </c>
       <c r="K8" t="n">
         <v>376.1555054002235</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707923</v>
+        <v>685.1523625707925</v>
       </c>
       <c r="M8" t="n">
         <v>1060.640340937548</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733706</v>
+        <v>1446.817915733705</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659507</v>
+        <v>1798.139187659506</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284331</v>
+        <v>2063.48276428433</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228513</v>
+        <v>2214.571993228512</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970528</v>
+        <v>2217.050212970527</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179431</v>
+        <v>2217.050212970527</v>
       </c>
       <c r="T8" t="n">
-        <v>1875.835030499457</v>
+        <v>2007.052422290553</v>
       </c>
       <c r="U8" t="n">
-        <v>1622.231086395763</v>
+        <v>1753.448478186859</v>
       </c>
       <c r="V8" t="n">
-        <v>1291.168199052193</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="W8" t="n">
-        <v>938.3995437820788</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="X8" t="n">
-        <v>564.933785520999</v>
+        <v>1422.385590843289</v>
       </c>
       <c r="Y8" t="n">
-        <v>174.7944535451873</v>
+        <v>1422.385590843289</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.3945319629271</v>
+        <v>273.1791949428577</v>
       </c>
       <c r="C9" t="n">
-        <v>441.3945319629271</v>
+        <v>193.2754139206618</v>
       </c>
       <c r="D9" t="n">
-        <v>422.9773816075558</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9773816075558</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344407</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618005</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941056</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941056</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113492</v>
+        <v>92.51967467113485</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154159</v>
+        <v>253.0195209154157</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572538</v>
+        <v>515.1539122572533</v>
       </c>
       <c r="M9" t="n">
-        <v>840.409251044973</v>
+        <v>840.4092510449723</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738684</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074212</v>
+        <v>1485.063300074211</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566942</v>
+        <v>1703.602536566941</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257639</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285084</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285084</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.495968838236</v>
+        <v>1574.495968838235</v>
       </c>
       <c r="U9" t="n">
-        <v>1346.395795893358</v>
+        <v>1346.395795893357</v>
       </c>
       <c r="V9" t="n">
-        <v>1111.243687661615</v>
+        <v>1111.243687661614</v>
       </c>
       <c r="W9" t="n">
-        <v>857.0063309334139</v>
+        <v>857.0063309334125</v>
       </c>
       <c r="X9" t="n">
-        <v>649.1548307278811</v>
+        <v>649.1548307278797</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.3945319629271</v>
+        <v>441.3945319629258</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>308.0825044159554</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="C10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="D10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="E10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="F10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="G10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="H10" t="n">
-        <v>139.1463214880485</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953608</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941056</v>
+        <v>44.34100425941055</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016725</v>
+        <v>95.74470838016718</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810358</v>
+        <v>191.4295496810356</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422655</v>
+        <v>295.5740818422652</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091241</v>
+        <v>405.0998157091237</v>
       </c>
       <c r="O10" t="n">
-        <v>485.951469271272</v>
+        <v>485.9514692712715</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139728</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139728</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139728</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139728</v>
+        <v>514.7610849089314</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139728</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139728</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="V10" t="n">
-        <v>536.0720553139728</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="W10" t="n">
-        <v>536.0720553139728</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="X10" t="n">
-        <v>308.0825044159554</v>
+        <v>291.2343762867715</v>
       </c>
       <c r="Y10" t="n">
-        <v>308.0825044159554</v>
+        <v>70.44179714324142</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2076.068775616324</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1707.106258675913</v>
+        <v>1503.127652257282</v>
       </c>
       <c r="D11" t="n">
-        <v>1348.840560069162</v>
+        <v>1144.861953650531</v>
       </c>
       <c r="E11" t="n">
-        <v>963.0523074709176</v>
+        <v>759.0737010522872</v>
       </c>
       <c r="F11" t="n">
-        <v>552.0664026813103</v>
+        <v>759.0737010522872</v>
       </c>
       <c r="G11" t="n">
-        <v>137.4506381224558</v>
+        <v>344.4579364934327</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345372</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3776.999350345372</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3523.5054084669</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.44252112333</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.673865853216</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.208107592136</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2076.068775616324</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2259.057595130675</v>
+        <v>941.5522947932185</v>
       </c>
       <c r="C12" t="n">
-        <v>2084.604565849548</v>
+        <v>767.0992655120915</v>
       </c>
       <c r="D12" t="n">
-        <v>1935.670156188296</v>
+        <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>1776.432701182841</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>1629.898143209726</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>1493.779391378057</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>1405.637387521365</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>1395.042966253377</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>1511.346392324497</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>1511.346392324497</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="L12" t="n">
-        <v>1930.043432982448</v>
+        <v>612.5381326449926</v>
       </c>
       <c r="M12" t="n">
-        <v>2437.999998938976</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>2973.809308640185</v>
+        <v>1656.30400830273</v>
       </c>
       <c r="O12" t="n">
-        <v>3441.750352972707</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>3797.981229217481</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>3862.155649206443</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
-        <v>3876.883295796031</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="S12" t="n">
-        <v>3751.98407245506</v>
+        <v>2434.478772117604</v>
       </c>
       <c r="T12" t="n">
-        <v>3560.325967398356</v>
+        <v>2242.8206670609</v>
       </c>
       <c r="U12" t="n">
-        <v>3332.274196081174</v>
+        <v>2014.768895743717</v>
       </c>
       <c r="V12" t="n">
-        <v>3097.122087849431</v>
+        <v>1779.616787511975</v>
       </c>
       <c r="W12" t="n">
-        <v>2842.884731121229</v>
+        <v>1525.379430783773</v>
       </c>
       <c r="X12" t="n">
-        <v>2635.033230915697</v>
+        <v>1317.52793057824</v>
       </c>
       <c r="Y12" t="n">
-        <v>2427.272932150743</v>
+        <v>1109.767631813286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.7748731129427</v>
+        <v>184.1123407281358</v>
       </c>
       <c r="C13" t="n">
-        <v>539.8386901850358</v>
+        <v>184.1123407281358</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8386901850358</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026427</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648139</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344801</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925581</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925581</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360021</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309472</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.075953103585</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.658783066624</v>
+        <v>814.5429355999229</v>
       </c>
       <c r="X13" t="n">
-        <v>890.4233379431824</v>
+        <v>586.5533847019055</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.4233379431824</v>
+        <v>365.7608055583755</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>175.8744207939063</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939063</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096652</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636217</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1654.485273605119</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2206.395003844406</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622271</v>
+        <v>513.8536007400774</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343203</v>
+        <v>344.9174178121704</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2570777219844</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>449.3439841395914</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>302.4540366416811</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>135.2579373565706</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176862</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970975</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035997</v>
+        <v>916.2946447138472</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892467</v>
+        <v>695.5020655703171</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273912</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797193</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>928.4651056120482</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y19" t="n">
-        <v>707.6725264685181</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516145</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F22" t="n">
-        <v>402.724593490894</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2297.191819870655</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.590354893597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1788.515128237795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1368.15426255076</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.063992790047</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2343.687142285115</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142551</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038349</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311996</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032927</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>482.639061290957</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>334.725967708564</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>187.8360202106537</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614394</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,25 +6461,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233306</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954238</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830881</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830882</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851778</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395118</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535704</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6944,37 +6944,37 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.248605371872</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
         <v>1307.627092998424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>922.1728707402531</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>772.0562313279171</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>624.143137745524</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="F37" t="n">
-        <v>477.2531902476136</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0570909624936</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>168.3452598046917</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797744</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.7575184984</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7172,10 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7184,7 +7184,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.9555321712451</v>
+        <v>695.5020655703112</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>526.5658826424043</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300685</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014848</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>254.8102828967508</v>
+        <v>49.87305750948354</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.1065449541194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.5965647168292</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844822505</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>99.2678512807112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.996654716019598e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>12.04875628922403</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393084</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>32.75273492913125</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.267231439602</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864847</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667969</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.44497470121314</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.49784254931346</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>225.8615017253051</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408524</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>7.482525529412887</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.0487562892246</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>144.5956654067398</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823116</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>72.44497470121431</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
@@ -26320,25 +26320,25 @@
         <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097581</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760025</v>
-      </c>
       <c r="H2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="I2" t="n">
-        <v>322858.6398760025</v>
-      </c>
       <c r="J2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
@@ -26347,13 +26347,13 @@
         <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.856032642</v>
+        <v>12262.85603264168</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674491</v>
+        <v>395943.9567674504</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704307</v>
+        <v>189308.2687704296</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487763</v>
+        <v>91259.95686487776</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949641</v>
+        <v>3074.447349949564</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202405</v>
+        <v>49839.57413202377</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607421</v>
+        <v>170817.8827607422</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26457,7 +26457,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
@@ -26476,13 +26476,13 @@
         <v>86153.75444404161</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738557</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-598462.5598208756</v>
+        <v>-598462.5598208755</v>
       </c>
       <c r="C6" t="n">
-        <v>-323495.6082852341</v>
+        <v>-323495.6082852343</v>
       </c>
       <c r="D6" t="n">
-        <v>59182.21470828762</v>
+        <v>59182.21470828794</v>
       </c>
       <c r="E6" t="n">
-        <v>-202767.0216072974</v>
+        <v>-202988.1529212731</v>
       </c>
       <c r="F6" t="n">
-        <v>17601.1452397972</v>
+        <v>17566.40731436243</v>
       </c>
       <c r="G6" t="n">
-        <v>206909.414010228</v>
+        <v>206874.6760847925</v>
       </c>
       <c r="H6" t="n">
-        <v>206909.4140102281</v>
+        <v>206874.6760847923</v>
       </c>
       <c r="I6" t="n">
-        <v>206909.4140102282</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="J6" t="n">
-        <v>157844.4692816833</v>
+        <v>157809.7313562478</v>
       </c>
       <c r="K6" t="n">
-        <v>115649.4571453502</v>
+        <v>115614.7192199144</v>
       </c>
       <c r="L6" t="n">
-        <v>203834.9666602783</v>
+        <v>203800.2287348427</v>
       </c>
       <c r="M6" t="n">
-        <v>103500.1531171164</v>
+        <v>103465.4151916803</v>
       </c>
       <c r="N6" t="n">
-        <v>157069.8398782038</v>
+        <v>157035.1019527684</v>
       </c>
       <c r="O6" t="n">
-        <v>206909.4140102279</v>
+        <v>206874.6760847922</v>
       </c>
       <c r="P6" t="n">
-        <v>206909.4140102281</v>
+        <v>206874.6760847922</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573208</v>
+        <v>863.6234498573205</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.262553242632</v>
+        <v>554.2625532426318</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490078</v>
+        <v>969.2208239490089</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636669</v>
+        <v>9.912785319636328</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576285</v>
+        <v>338.6177873576297</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126725</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646871</v>
+        <v>12.14759651646864</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506412</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598429</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646894</v>
+        <v>12.14759651646864</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150641</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646871</v>
+        <v>12.14759651646864</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063759</v>
+        <v>414.9582707063771</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506412</v>
+        <v>203.4874641506399</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>191.3244595904158</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543628</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>13.57715498572784</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,16 +27436,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>16.95008154163736</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>111.0503695630408</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437708</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482795</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.5764431702835</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>65.19886878570929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.814555146505683</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>193.1767382050307</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -27828,16 +27828,16 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293805</v>
       </c>
       <c r="X7" t="n">
-        <v>147.8666154729115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>331.458181461696</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>156.3290929380063</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151403</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>93.60375577634176</v>
       </c>
       <c r="D9" t="n">
-        <v>129.2120867128211</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433991</v>
+        <v>35.56536036433994</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>153.9921952269447</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>31.64984638131264</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.8905104633243</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.0978607009904</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313612</v>
@@ -28062,7 +28062,7 @@
         <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2340827876525</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.85687453593417e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.475300544181665e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>5.57823417087396e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.187890847278167e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.399497815529941e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.750640694000166e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753046</v>
+        <v>3.471853064753045</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940214</v>
+        <v>35.55611519940212</v>
       </c>
       <c r="I8" t="n">
         <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545841</v>
+        <v>294.669189054584</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855806</v>
+        <v>441.6327292855804</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160167</v>
+        <v>547.8844525160165</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563187</v>
+        <v>609.6270194563184</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765484</v>
+        <v>619.4914219765481</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639101</v>
+        <v>584.9681830639099</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278193</v>
+        <v>499.2568105278191</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463508</v>
+        <v>374.9210726463506</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787937</v>
+        <v>218.0887900787936</v>
       </c>
       <c r="S8" t="n">
-        <v>79.1148517130601</v>
+        <v>79.11485171306008</v>
       </c>
       <c r="T8" t="n">
         <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802436</v>
+        <v>0.2777482451802435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.857605156296878</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.94055506213038</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566009</v>
+        <v>63.95701963566006</v>
       </c>
       <c r="J9" t="n">
         <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.962495786764</v>
+        <v>299.9624957867638</v>
       </c>
       <c r="L9" t="n">
-        <v>403.336593256478</v>
+        <v>403.3365932564778</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722398</v>
+        <v>470.6747801722396</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668799</v>
+        <v>483.1321410668797</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510385</v>
+        <v>441.9715215510383</v>
       </c>
       <c r="P9" t="n">
-        <v>354.72111094234</v>
+        <v>354.7211109423398</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230893</v>
+        <v>237.1216687230892</v>
       </c>
       <c r="R9" t="n">
         <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911086</v>
+        <v>34.50420103911085</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442241</v>
+        <v>7.487452362442238</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222108655458473</v>
@@ -31677,43 +31677,43 @@
         <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291832</v>
+        <v>46.83387495291831</v>
       </c>
       <c r="J10" t="n">
         <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258452</v>
+        <v>180.9361916258451</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306004</v>
+        <v>231.5360311306003</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801603</v>
+        <v>244.1222810801602</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762015</v>
+        <v>238.3175988762014</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833054</v>
+        <v>220.1248753833053</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.3548586377342</v>
       </c>
       <c r="Q10" t="n">
         <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580831</v>
+        <v>70.02428824580828</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387678</v>
+        <v>27.14042874387676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343289</v>
+        <v>6.654147892343286</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842508</v>
+        <v>0.08494656883842505</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869139</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203912</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.792336797512</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544648</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954551</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180159</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956795</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620351</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825963</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469202</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747742</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821473</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340498</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924467</v>
+        <v>489.9737736272093</v>
       </c>
       <c r="P12" t="n">
-        <v>493.803575338344</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.8044205395187</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605173</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627648</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100538</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.840092677006</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.480084578117</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377474</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>209.7242506524589</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>484.1423712692481</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330446</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>479.6444630806897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>314.4610577451602</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>258.3858318060501</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>630.8026878560991</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>186.6878763515704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278978</v>
+        <v>113.6232845278977</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406</v>
+        <v>221.5428782405999</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460295</v>
+        <v>312.1180375460293</v>
       </c>
       <c r="M8" t="n">
-        <v>379.280786229046</v>
+        <v>379.2807862290457</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799575</v>
+        <v>390.0783583799571</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422234</v>
+        <v>354.8699716422232</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725498</v>
+        <v>268.0238147725495</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719013</v>
+        <v>152.6153827719011</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661569</v>
+        <v>2.503252264661484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820642</v>
+        <v>48.66532364820637</v>
       </c>
       <c r="K9" t="n">
-        <v>162.121056812405</v>
+        <v>162.1210568124048</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766038</v>
+        <v>264.7822134766037</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502214</v>
+        <v>328.5407462502213</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835466</v>
+        <v>351.7904289835463</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065941</v>
+        <v>299.3752771065939</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280097</v>
+        <v>220.7467035280096</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706778</v>
+        <v>97.1398946370677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530979</v>
+        <v>51.92293345530973</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936212</v>
+        <v>96.65135484936204</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325553</v>
+        <v>105.1964971325552</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109683</v>
+        <v>110.6320544109682</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146256</v>
+        <v>81.66833693146248</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858664</v>
+        <v>50.62685458858658</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525315</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681824</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214249</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739928</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067655</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081468</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553045</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507166</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480023</v>
+        <v>347.3775291827649</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240138</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.82264645349717</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655331</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186262</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703699</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776294</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>82.88662398579226</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>350.1679638549179</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317042</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>337.5104291586714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.626132989911</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>174.4792836591387</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096356</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>120.5443928316911</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>488.6686539340807</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>44.09163190712597</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
